--- a/config_ios提审/game_module_config.xlsx
+++ b/config_ios提审/game_module_config.xlsx
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$237</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="678">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -2888,6 +2888,10 @@
   </si>
   <si>
     <t>3D捕鱼开炮送红包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久和破产流程有关，不能关闭</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3343,10 +3347,10 @@
   <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D233" sqref="D233"/>
+      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3872,13 +3876,13 @@
         <v>63</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>647</v>
@@ -4652,13 +4656,13 @@
         <v>151</v>
       </c>
       <c r="E50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>648</v>
@@ -4678,13 +4682,13 @@
         <v>154</v>
       </c>
       <c r="E51" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>649</v>
@@ -4728,13 +4732,13 @@
         <v>159</v>
       </c>
       <c r="E53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>649</v>
@@ -4962,13 +4966,13 @@
         <v>185</v>
       </c>
       <c r="E62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>648</v>
@@ -5274,13 +5278,13 @@
         <v>221</v>
       </c>
       <c r="E74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>648</v>
@@ -7068,13 +7072,13 @@
         <v>427</v>
       </c>
       <c r="E143" s="5">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F143" s="9">
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
         <v>647</v>
@@ -7094,13 +7098,13 @@
         <v>429</v>
       </c>
       <c r="E144" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" s="12" t="s">
         <v>648</v>
@@ -7701,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -7792,13 +7796,13 @@
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" s="12" t="s">
         <v>648</v>
@@ -7816,13 +7820,13 @@
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" s="12" t="s">
         <v>647</v>
@@ -7840,13 +7844,13 @@
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" s="12" t="s">
         <v>648</v>
@@ -7964,13 +7968,13 @@
         <v>517</v>
       </c>
       <c r="E178" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" s="12" t="s">
         <v>648</v>
@@ -7990,13 +7994,13 @@
         <v>520</v>
       </c>
       <c r="E179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" s="12" t="s">
         <v>647</v>
@@ -9271,13 +9275,13 @@
         <v>660</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9356,7 +9360,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H234"/>
+  <autoFilter ref="A1:H237"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/config_ios提审/game_module_config.xlsx
+++ b/config_ios提审/game_module_config.xlsx
@@ -3457,10 +3457,10 @@
   <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A242" sqref="A242"/>
+      <selection pane="bottomRight" activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6116,13 +6116,13 @@
         <v>303</v>
       </c>
       <c r="E102" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>649</v>
@@ -9509,13 +9509,13 @@
         <v>684</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="s">
         <v>685</v>

--- a/config_ios提审/game_module_config.xlsx
+++ b/config_ios提审/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="705">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3002,6 +3002,18 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_zdkp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼自动开炮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DZDKPManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3454,13 +3466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F239" sqref="F239"/>
+      <selection pane="bottomRight" activeCell="H244" sqref="H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9623,6 +9635,32 @@
       </c>
       <c r="I243" s="9" t="s">
         <v>701</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>243</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="I244" s="9" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
